--- a/data/event_list/data.xlsx
+++ b/data/event_list/data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\情報政策課\●ＩＣＴ推進室\300オープンデータ\300オープンデータ登録・更新\20231019新規データ追加(生涯学習課)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/geolonia/opendata/data/event_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39CB41-C44B-EC46-BA81-E1BCDB3211FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="288">
   <si>
     <t>№</t>
     <phoneticPr fontId="2"/>
@@ -242,242 +243,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>★自主学習スペース情報★</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">市有施設の一部を自主学習スペースとし
-て提供しています。（詳細は各施設にお
-問い合わせください。）
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生涯学習課</t>
-    <rPh sb="0" eb="5">
-      <t>ショウガイガクシュウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>087-839-2633</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吉村</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家庭教育コラム『必見！！
-家庭教育のススメ』</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">家庭教育について、自分の都合に合わせ
-て学ぶことができるよう、子育てに役立
-つちょっとしたヒントを定期的にお届け
-します！ぜひ、ご覧ください！！
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>随時（要調整）</t>
-    <rPh sb="0" eb="2">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市政出前ふれあいトーク</t>
-    <rPh sb="0" eb="4">
-      <t>シセイデマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申込者が確保してください（市内の会場に限ります）</t>
-    <rPh sb="0" eb="2">
-      <t>モウシコミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクホ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>職員が地域に出向き、市政の仕組みや事業などをわかりやすく説明する「市政出前ふれあいトーク」を実施しています。関心のあるテーマを選んで、お気軽にお申込みください。</t>
-    <rPh sb="0" eb="2">
-      <t>ショクイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チイキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デム</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>シセイデマエ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>カンシン</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キガル</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>モウシコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無料</t>
     <rPh sb="0" eb="2">
       <t>ムリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実施希望日の2週間前まで</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>キボウビ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュウカンマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広聴広報課　市民相談コーナー</t>
-    <rPh sb="0" eb="5">
-      <t>コウチョウコウホウカ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>シミンソウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>087-839-2111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市民相談コーナー</t>
-    <rPh sb="0" eb="4">
-      <t>シミンソウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宮崎</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤザキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日程調整し決定</t>
-    <rPh sb="0" eb="2">
-      <t>ニッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市長まちかどトーク</t>
-    <rPh sb="0" eb="2">
-      <t>シチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>市内で活動する各種団体と市長が、相互理解を深める機会として「市長まちかどトーク」を実施します。市長と率直な意見交換をしてみませんか？</t>
-    <rPh sb="0" eb="2">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シチョウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ソッチョク</t>
-    </rPh>
-    <rPh sb="53" eb="57">
-      <t>イケンコウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R6/2月末</t>
-    <rPh sb="4" eb="5">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>柳</t>
-    <rPh sb="0" eb="1">
-      <t>ヤナギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -613,102 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11月5日（日）</t>
-    <rPh sb="5" eb="6">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日々の生活に欠かすことができない電灯、電気がなかった江戸時代に普及した日本ならではの照明器具「行燈」を身近な材料を使って作ってみよう！</t>
-    <rPh sb="0" eb="2">
-      <t>ヒビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイカツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デントウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>デンキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>エド</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジダイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フキュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウメイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キグ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>アンドン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ミヂカ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>申込不要（当日会場へ）</t>
-    <rPh sb="0" eb="2">
-      <t>モウシコミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウジツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歴史資料館</t>
-    <rPh sb="0" eb="2">
-      <t>レキシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>シリョウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>087-861-4520</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10月31日（火）</t>
     <rPh sb="1" eb="2">
       <t>ツキ</t>
@@ -2479,23 +2151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サンクリスタル高松4階
-歴史資料館ロビー　</t>
-    <rPh sb="7" eb="9">
-      <t>タカマツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>レキシ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シリョウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新居東児童館
 （子育て支援課）</t>
     <rPh sb="0" eb="6">
@@ -2521,38 +2176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>市内に在住か、通勤・通学している人で、20名程度の参加が見込める団体やグループ</t>
-    <rPh sb="16" eb="17">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20名以上で構成される市民活動団体で、当日におおむね10名以上参加できる団体</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シミン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>16名</t>
     <rPh sb="2" eb="3">
       <t>メイ</t>
@@ -2772,11 +2395,6 @@
     <rPh sb="15" eb="16">
       <t>タッ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高松市ホームページ上で
-公開中</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2815,30 +2433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第81回企画展関連
-ワークショップ
-「行燈を作ろう！」</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>キカクテン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>アンドン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シニア世代と
 ペットの暮らしについて</t>
     <rPh sb="3" eb="5">
@@ -3050,10 +2644,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高松市ホームページ上で公開中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11月25日（土）</t>
     <rPh sb="1" eb="2">
       <t>ガツ</t>
@@ -3156,10 +2746,6 @@
   </si>
   <si>
     <t>https://www.flat-takamatsu.net/bcs/info6412.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/bunka/rekishi/index.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3219,22 +2805,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/sodan/demaefureai.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://www.city.takamatsu.kagawa.jp/kurashi/shichoushitsu/hatsugen/machikado/index.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.city.takamatsu.kagawa.jp/smph/kurashi/kosodate/chiiki_kosodate/collum.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.city.takamatsu.kagawa.jp/kurashi/kosodate/shouchugakkou/gakushu/2021-10-7houdou.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
       <t>イド</t>
@@ -3311,36 +2881,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10：00～
-21：00の間で、1回当たり1時間から1時間30分程度まで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1時間程度で、夜間の場合の終了時刻は、おおむね20：00まで</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヤカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゴゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>場所名称</t>
     <rPh sb="0" eb="2">
       <t>バショ</t>
@@ -3365,15 +2905,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00000000_);[Red]\(0.00000000\)"/>
-    <numFmt numFmtId="180" formatCode="0.00000000"/>
-    <numFmt numFmtId="181" formatCode="h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="0.00000000_);[Red]\(0.00000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00000000"/>
+    <numFmt numFmtId="180" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3702,7 +3242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3794,9 +3334,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3893,12 +3430,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3932,35 +3469,32 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4242,90 +3776,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y151"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="170" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="28" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="83" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="83" customWidth="1"/>
-    <col min="6" max="6" width="30.125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="82" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="82" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="28" customWidth="1"/>
     <col min="7" max="7" width="23" style="28" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="19.625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="28" customWidth="1"/>
     <col min="10" max="10" width="33" style="28" customWidth="1"/>
-    <col min="11" max="12" width="10.25" style="28" customWidth="1"/>
-    <col min="13" max="13" width="19.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.875" style="28" customWidth="1"/>
-    <col min="15" max="15" width="20.75" style="28" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="28" customWidth="1"/>
-    <col min="17" max="17" width="16.75" style="28" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="10.1640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="28" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="28" hidden="1" customWidth="1"/>
-    <col min="19" max="24" width="2.125" style="1" customWidth="1"/>
-    <col min="25" max="28" width="15.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.625" style="1" customWidth="1"/>
-    <col min="30" max="43" width="2.125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.375" style="1"/>
+    <col min="19" max="24" width="2.1640625" style="1" customWidth="1"/>
+    <col min="25" max="28" width="15.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" style="1" customWidth="1"/>
+    <col min="30" max="43" width="2.1640625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:18" ht="49.5" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>317</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="F1" s="67" t="s">
+      <c r="D1" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="K1" s="68" t="s">
+      <c r="G1" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="69" t="s">
-        <v>327</v>
-      </c>
-      <c r="O1" s="68" t="s">
+      <c r="N1" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="O1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="67" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14" t="s">
@@ -4335,2247 +3869,2086 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48">
+    <row r="2" spans="1:18" ht="100" customHeight="1">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="78">
+      <c r="C2" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="77">
         <v>0.5625</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="79">
         <v>0.64236111111111105</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="F2" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="53" t="s">
+      <c r="J2" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="O2" s="48" t="s">
+      <c r="N2" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="100" customHeight="1">
+      <c r="A3" s="47">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="77">
+        <v>0.5625</v>
+      </c>
+      <c r="E3" s="78">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="52" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="N3" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="100" customHeight="1">
+      <c r="A4" s="47">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="78">
+      <c r="C4" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="77">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="48">
+        <v>134.05237049999999</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="100" customHeight="1">
+      <c r="A5" s="47">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="78">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="100" customHeight="1">
+      <c r="A6" s="47">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="77">
         <v>0.5625</v>
       </c>
-      <c r="E3" s="79">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="N3" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="O3" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="78">
-        <v>0.4375</v>
-      </c>
-      <c r="E4" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" s="49">
-        <v>134.05237049999999</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48">
-        <v>4</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="79">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="79">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F5" s="49" t="s">
+      <c r="E6" s="79">
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="O5" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="P5" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="48">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="78">
-        <v>0.5625</v>
-      </c>
-      <c r="E6" s="80">
-        <v>0.625</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="51" t="s">
+      <c r="M6" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="N6" s="71" t="s">
-        <v>280</v>
-      </c>
-      <c r="O6" s="48" t="s">
+      <c r="N6" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="P6" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48">
+      <c r="R6" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="150" customHeight="1">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="79">
+      <c r="C7" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="78">
         <v>0.5625</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="78">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="O7" s="48" t="s">
+      <c r="J7" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="O7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="59" t="s">
+      <c r="P7" s="58" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="R7" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="100" customHeight="1">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="54">
+        <v>34.35252405</v>
+      </c>
+      <c r="I8" s="48">
+        <v>134.04661277</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="79" t="s">
-        <v>320</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="H8" s="55">
-        <v>34.35252405</v>
-      </c>
-      <c r="I8" s="49">
-        <v>134.04661277</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="N8" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="O8" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="P8" s="52" t="s">
-        <v>205</v>
+      <c r="P8" s="51" t="s">
+        <v>178</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="120" customHeight="1">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="78">
+      <c r="C9" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="77">
         <v>0.5625</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="79">
         <v>0.625</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="50" t="s">
+      <c r="F9" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="N9" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="O9" s="48" t="s">
+      <c r="J9" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="100" customHeight="1">
+      <c r="A10" s="47">
         <v>9</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="49">
+      <c r="C10" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="48">
         <v>134.051779779952</v>
       </c>
-      <c r="J10" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="49" t="s">
+      <c r="J10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="O10" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="52" t="s">
-        <v>87</v>
+      <c r="N10" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="150" customHeight="1">
+      <c r="A11" s="47">
         <v>10</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="79">
+      <c r="C11" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="78">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="48">
+        <v>134.051779779952</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="100" customHeight="1">
+      <c r="A12" s="47">
+        <v>11</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="77">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E12" s="79">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="48">
+        <v>134.05237049999999</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P12" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="150" customHeight="1">
+      <c r="A13" s="47">
+        <v>12</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="77">
+        <v>0.5625</v>
+      </c>
+      <c r="E13" s="78">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="100" customHeight="1">
+      <c r="A14" s="47">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="79">
+        <v>0.4375</v>
+      </c>
+      <c r="E14" s="79">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F14" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="49">
-        <v>134.051779779952</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="49" t="s">
+      <c r="G14" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="48">
+        <v>134.05237049999999</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="O14" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="100" customHeight="1">
+      <c r="A15" s="47">
+        <v>14</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="78">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="180" customHeight="1">
+      <c r="A16" s="47">
+        <v>15</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="77">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E16" s="79">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48">
-        <v>11</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="78">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E12" s="80">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="49">
-        <v>134.05237049999999</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="N12" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="O12" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="P12" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48">
-        <v>12</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="78">
-        <v>0.5625</v>
-      </c>
-      <c r="E13" s="79">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="N13" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="O13" s="48" t="s">
+      <c r="N16" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48">
-        <v>13</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="80">
-        <v>0.4375</v>
-      </c>
-      <c r="E14" s="80">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I14" s="49">
-        <v>134.05237049999999</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="N14" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="P14" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="48">
-        <v>14</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="79">
-        <v>0.5625</v>
-      </c>
-      <c r="E15" s="79">
-        <v>0.625</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="180" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48">
-        <v>15</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="78">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E16" s="80">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="71" t="s">
-        <v>288</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="54" t="s">
+      <c r="P16" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q16" s="29" t="s">
         <v>7</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="180" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="180" customHeight="1">
+      <c r="A17" s="47">
         <v>16</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="D17" s="78">
+      <c r="C17" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="77">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E17" s="79">
+      <c r="E17" s="78">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" s="49">
+      <c r="F17" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="48">
         <v>133.97189028137399</v>
       </c>
-      <c r="J17" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="N17" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="P17" s="52" t="s">
-        <v>188</v>
+      <c r="J17" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="48">
+    <row r="18" spans="1:18" ht="100" customHeight="1">
+      <c r="A18" s="47">
         <v>17</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="78">
+      <c r="C18" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="77">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="79">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="50" t="s">
+      <c r="F18" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="57" t="s">
+      <c r="J18" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>290</v>
-      </c>
-      <c r="O18" s="48" t="s">
+      <c r="M18" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="54" t="s">
+      <c r="P18" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="29" t="s">
         <v>7</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="100" customHeight="1">
+      <c r="A19" s="47">
         <v>18</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="78">
+      <c r="C19" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="77">
         <v>0.5625</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="78">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F19" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="50" t="s">
+      <c r="F19" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="57" t="s">
+      <c r="J19" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="N19" s="71" t="s">
-        <v>291</v>
-      </c>
-      <c r="O19" s="48" t="s">
+      <c r="M19" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="O19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="54" t="s">
+      <c r="P19" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="48">
+        <v>112</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="100" customHeight="1">
+      <c r="A20" s="47">
         <v>19</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="79">
+      <c r="C20" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="78">
         <v>0.5625</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="78">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="55" t="s">
+      <c r="F20" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="49" t="s">
+      <c r="J20" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="M20" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="71" t="s">
-        <v>292</v>
-      </c>
-      <c r="O20" s="48" t="s">
+      <c r="N20" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="O20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="59" t="s">
+      <c r="P20" s="58" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="100" customHeight="1">
+      <c r="A21" s="47">
         <v>20</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="78">
+      <c r="C21" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="77">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="78">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" s="49" t="s">
+      <c r="F21" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N21" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="P21" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="100" customHeight="1">
+      <c r="A22" s="47">
+        <v>21</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="77">
+        <v>0.4375</v>
+      </c>
+      <c r="E22" s="79">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="48">
+        <v>134.05237049999999</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="N22" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="O22" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P22" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="150" customHeight="1">
+      <c r="A23" s="47">
+        <v>22</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="77">
+        <v>0.5625</v>
+      </c>
+      <c r="E23" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="48">
+        <v>134.052606666814</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="O23" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="100" customHeight="1">
+      <c r="A24" s="47">
+        <v>23</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="77">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E24" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="N21" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="P21" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="48">
-        <v>21</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="78">
-        <v>0.4375</v>
-      </c>
-      <c r="E22" s="80">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="49">
-        <v>134.05237049999999</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M22" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="N22" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="O22" s="58" t="s">
+      <c r="N24" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="100" customHeight="1">
+      <c r="A25" s="47">
+        <v>24</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="P22" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48">
-        <v>22</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="78">
+      <c r="D25" s="77">
         <v>0.5625</v>
       </c>
-      <c r="E23" s="79">
-        <v>0.625</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="49">
-        <v>134.052606666814</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="N23" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="48">
-        <v>23</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="78">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E24" s="79">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="55" t="s">
+      <c r="E25" s="79">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="M24" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="O24" s="48" t="s">
+      <c r="J25" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="O25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48">
-        <v>24</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="78">
-        <v>0.5625</v>
-      </c>
-      <c r="E25" s="80">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M25" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="N25" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="O25" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P25" s="54" t="s">
+      <c r="P25" s="53" t="s">
         <v>3</v>
       </c>
       <c r="Q25" s="29" t="s">
         <v>7</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="150" customHeight="1">
+      <c r="A26" s="47">
         <v>25</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="77">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E26" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="48">
+        <v>134.04077616089799</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="O26" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="100" customHeight="1">
+      <c r="A27" s="47">
+        <v>26</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="77">
+        <v>0.5625</v>
+      </c>
+      <c r="E27" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="150" customHeight="1">
+      <c r="A28" s="47">
+        <v>27</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="79">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E28" s="78">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="48">
+        <v>134.05237049999999</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="N28" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="150" customHeight="1">
+      <c r="A29" s="47">
+        <v>29</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="77">
+        <v>0.4375</v>
+      </c>
+      <c r="E29" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="48">
+        <v>134.05237049999999</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="100" customHeight="1">
+      <c r="A30" s="47">
+        <v>30</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="77">
+        <v>0.5625</v>
+      </c>
+      <c r="E30" s="79">
+        <v>0.625</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="O30" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="100" customHeight="1">
+      <c r="A31" s="47">
+        <v>31</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="78">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E31" s="78">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="100" customHeight="1">
+      <c r="A32" s="47">
+        <v>32</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="77">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E32" s="78">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F32" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="48">
+        <v>134.051779779952</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="P32" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="100" customHeight="1">
+      <c r="A33" s="47">
+        <v>33</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="78">
+        <v>0.5625</v>
+      </c>
+      <c r="E33" s="78">
+        <v>0.625</v>
+      </c>
+      <c r="F33" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P33" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="100" customHeight="1">
+      <c r="A34" s="47">
+        <v>34</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="79">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E34" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="L34" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="100" customHeight="1">
+      <c r="A35" s="47">
+        <v>35</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="77">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E35" s="78">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="P35" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="R35" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="150" customHeight="1">
+      <c r="A36" s="47">
+        <v>36</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="78">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E26" s="79">
-        <v>0.625</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="49">
-        <v>134.04077616089799</v>
-      </c>
-      <c r="J26" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="O26" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="R26" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48">
-        <v>26</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="78">
-        <v>0.5625</v>
-      </c>
-      <c r="E27" s="79">
-        <v>0.625</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="49" t="s">
+      <c r="D36" s="78">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E36" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="53" t="s">
+      <c r="G36" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="63">
+        <v>34.241764071606397</v>
+      </c>
+      <c r="I36" s="64">
+        <v>134.108626484659</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="N36" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="N27" s="72" t="s">
-        <v>298</v>
-      </c>
-      <c r="O27" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R27" s="19" t="s">
+      <c r="Q36" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="48">
-        <v>27</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="80">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E28" s="79">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="49">
-        <v>134.05237049999999</v>
-      </c>
-      <c r="J28" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="M28" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="N28" s="72" t="s">
-        <v>299</v>
-      </c>
-      <c r="O28" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="P28" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="48">
-        <v>28</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="78">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E29" s="79">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="N29" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="O29" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="P29" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="48">
-        <v>29</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="78">
-        <v>0.4375</v>
-      </c>
-      <c r="E30" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="49">
-        <v>134.05237049999999</v>
-      </c>
-      <c r="J30" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="L30" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M30" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="N30" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="O30" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="P30" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="48">
-        <v>30</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="78">
-        <v>0.5625</v>
-      </c>
-      <c r="E31" s="80">
-        <v>0.625</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="K31" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="M31" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="N31" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="O31" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P31" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="R31" s="19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="48">
-        <v>31</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="79">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E32" s="79">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="M32" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="O32" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P32" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="48">
-        <v>32</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="70" t="s">
+      <c r="R36" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="78">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E33" s="79">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="49">
-        <v>134.051779779952</v>
-      </c>
-      <c r="J33" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="K33" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="M33" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" s="72" t="s">
-        <v>304</v>
-      </c>
-      <c r="O33" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="P33" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R33" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="48">
-        <v>33</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="79">
-        <v>0.5625</v>
-      </c>
-      <c r="E34" s="79">
-        <v>0.625</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="M34" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="O34" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P34" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="48">
-        <v>34</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="80">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E35" s="80">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="L35" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="O35" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="R35" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="48">
-        <v>35</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="78">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E36" s="79">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="N36" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="O36" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="P36" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q36" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="R36" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="48">
-        <v>36</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="79">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E37" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="64">
-        <v>34.241764071606397</v>
-      </c>
-      <c r="I37" s="65">
-        <v>134.108626484659</v>
-      </c>
-      <c r="J37" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="M37" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="N37" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="O37" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="P37" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q37" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="R37" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="48">
-        <v>37</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="E38" s="86" t="s">
-        <v>323</v>
-      </c>
-      <c r="F38" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="N38" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="O38" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q38" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R38" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="48">
-        <v>38</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="M39" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="O39" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="R39" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="48">
-        <v>39</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="O40" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="18"/>
-    </row>
-    <row r="41" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="48">
-        <v>40</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="H41" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="72" t="s">
-        <v>313</v>
-      </c>
-      <c r="O41" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y41" s="28"/>
-    </row>
-    <row r="42" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="47">
-        <v>39</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
+    </row>
+    <row r="37" spans="1:18" ht="100" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="19"/>
+    </row>
+    <row r="38" spans="1:18" ht="100" customHeight="1">
+      <c r="A38" s="46"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="19"/>
+    </row>
+    <row r="39" spans="1:18" ht="100" customHeight="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="19"/>
+    </row>
+    <row r="40" spans="1:18" ht="100" customHeight="1">
+      <c r="A40" s="46"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="19"/>
+    </row>
+    <row r="41" spans="1:18" ht="100" customHeight="1">
+      <c r="A41" s="46"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="19"/>
+    </row>
+    <row r="42" spans="1:18" ht="100" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="81"/>
       <c r="E42" s="84"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="46"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="7"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="19"/>
     </row>
-    <row r="43" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="47">
-        <v>40</v>
-      </c>
+    <row r="43" spans="1:18" ht="100" customHeight="1">
+      <c r="A43" s="3"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="85"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="4"/>
       <c r="G43" s="9"/>
       <c r="H43" s="24"/>
@@ -6585,19 +5958,17 @@
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="10"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="7"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="19"/>
     </row>
-    <row r="44" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="47">
-        <v>41</v>
-      </c>
+    <row r="44" spans="1:18" ht="100" customHeight="1">
+      <c r="A44" s="3"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="85"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="4"/>
       <c r="G44" s="9"/>
       <c r="H44" s="24"/>
@@ -6612,14 +5983,12 @@
       <c r="Q44" s="16"/>
       <c r="R44" s="19"/>
     </row>
-    <row r="45" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="47">
-        <v>42</v>
-      </c>
+    <row r="45" spans="1:18" ht="100" customHeight="1">
+      <c r="A45" s="3"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="84"/>
       <c r="F45" s="4"/>
       <c r="G45" s="9"/>
       <c r="H45" s="24"/>
@@ -6634,14 +6003,12 @@
       <c r="Q45" s="16"/>
       <c r="R45" s="19"/>
     </row>
-    <row r="46" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="47">
-        <v>43</v>
-      </c>
+    <row r="46" spans="1:18" ht="100" customHeight="1">
+      <c r="A46" s="3"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="85"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="84"/>
       <c r="F46" s="4"/>
       <c r="G46" s="9"/>
       <c r="H46" s="24"/>
@@ -6656,14 +6023,12 @@
       <c r="Q46" s="16"/>
       <c r="R46" s="19"/>
     </row>
-    <row r="47" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3">
-        <v>54</v>
-      </c>
+    <row r="47" spans="1:18" ht="100" customHeight="1">
+      <c r="A47" s="3"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="85"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="84"/>
       <c r="F47" s="4"/>
       <c r="G47" s="9"/>
       <c r="H47" s="24"/>
@@ -6678,14 +6043,12 @@
       <c r="Q47" s="16"/>
       <c r="R47" s="19"/>
     </row>
-    <row r="48" spans="1:25" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3">
-        <v>55</v>
-      </c>
+    <row r="48" spans="1:18" ht="100" customHeight="1">
+      <c r="A48" s="3"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="85"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="84"/>
       <c r="F48" s="4"/>
       <c r="G48" s="9"/>
       <c r="H48" s="24"/>
@@ -6695,19 +6058,17 @@
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
       <c r="N48" s="13"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="7"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="10"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="19"/>
     </row>
-    <row r="49" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3">
-        <v>56</v>
-      </c>
+    <row r="49" spans="1:18" ht="100" customHeight="1">
+      <c r="A49" s="3"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="85"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="84"/>
       <c r="F49" s="4"/>
       <c r="G49" s="9"/>
       <c r="H49" s="24"/>
@@ -6722,14 +6083,12 @@
       <c r="Q49" s="16"/>
       <c r="R49" s="19"/>
     </row>
-    <row r="50" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3">
-        <v>57</v>
-      </c>
+    <row r="50" spans="1:18" ht="100" customHeight="1">
+      <c r="A50" s="3"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="85"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="84"/>
       <c r="F50" s="4"/>
       <c r="G50" s="9"/>
       <c r="H50" s="24"/>
@@ -6744,14 +6103,12 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="19"/>
     </row>
-    <row r="51" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3">
-        <v>58</v>
-      </c>
+    <row r="51" spans="1:18" ht="100" customHeight="1">
+      <c r="A51" s="3"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="85"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="84"/>
       <c r="F51" s="4"/>
       <c r="G51" s="9"/>
       <c r="H51" s="24"/>
@@ -6766,14 +6123,12 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="19"/>
     </row>
-    <row r="52" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3">
-        <v>59</v>
-      </c>
+    <row r="52" spans="1:18" ht="100" customHeight="1">
+      <c r="A52" s="3"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="85"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="84"/>
       <c r="F52" s="4"/>
       <c r="G52" s="9"/>
       <c r="H52" s="24"/>
@@ -6788,14 +6143,12 @@
       <c r="Q52" s="16"/>
       <c r="R52" s="19"/>
     </row>
-    <row r="53" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3">
-        <v>60</v>
-      </c>
+    <row r="53" spans="1:18" ht="100" customHeight="1">
+      <c r="A53" s="3"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="85"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="84"/>
       <c r="F53" s="4"/>
       <c r="G53" s="9"/>
       <c r="H53" s="24"/>
@@ -6805,19 +6158,17 @@
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
       <c r="N53" s="13"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="10"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="7"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="19"/>
     </row>
-    <row r="54" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3">
-        <v>61</v>
-      </c>
+    <row r="54" spans="1:18" ht="100" customHeight="1">
+      <c r="A54" s="3"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="85"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="84"/>
       <c r="F54" s="4"/>
       <c r="G54" s="9"/>
       <c r="H54" s="24"/>
@@ -6832,14 +6183,12 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="19"/>
     </row>
-    <row r="55" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3">
-        <v>62</v>
-      </c>
+    <row r="55" spans="1:18" ht="100" customHeight="1">
+      <c r="A55" s="3"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="85"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="84"/>
       <c r="F55" s="4"/>
       <c r="G55" s="9"/>
       <c r="H55" s="24"/>
@@ -6854,14 +6203,12 @@
       <c r="Q55" s="16"/>
       <c r="R55" s="19"/>
     </row>
-    <row r="56" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3">
-        <v>63</v>
-      </c>
+    <row r="56" spans="1:18" ht="100" customHeight="1">
+      <c r="A56" s="3"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="85"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="84"/>
       <c r="F56" s="4"/>
       <c r="G56" s="9"/>
       <c r="H56" s="24"/>
@@ -6876,14 +6223,12 @@
       <c r="Q56" s="16"/>
       <c r="R56" s="19"/>
     </row>
-    <row r="57" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3">
-        <v>64</v>
-      </c>
+    <row r="57" spans="1:18" ht="100" customHeight="1">
+      <c r="A57" s="3"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="85"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="84"/>
       <c r="F57" s="4"/>
       <c r="G57" s="9"/>
       <c r="H57" s="24"/>
@@ -6898,14 +6243,12 @@
       <c r="Q57" s="16"/>
       <c r="R57" s="19"/>
     </row>
-    <row r="58" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
-        <v>65</v>
-      </c>
+    <row r="58" spans="1:18" ht="100" customHeight="1">
+      <c r="A58" s="3"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="85"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="84"/>
       <c r="F58" s="4"/>
       <c r="G58" s="9"/>
       <c r="H58" s="24"/>
@@ -6915,19 +6258,17 @@
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
       <c r="N58" s="13"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="7"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="10"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="19"/>
     </row>
-    <row r="59" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="3">
-        <v>66</v>
-      </c>
+    <row r="59" spans="1:18" ht="100" customHeight="1">
+      <c r="A59" s="3"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="85"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="84"/>
       <c r="F59" s="4"/>
       <c r="G59" s="9"/>
       <c r="H59" s="24"/>
@@ -6942,14 +6283,12 @@
       <c r="Q59" s="16"/>
       <c r="R59" s="19"/>
     </row>
-    <row r="60" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="3">
-        <v>67</v>
-      </c>
+    <row r="60" spans="1:18" ht="100" customHeight="1">
+      <c r="A60" s="3"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="85"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="84"/>
       <c r="F60" s="4"/>
       <c r="G60" s="9"/>
       <c r="H60" s="24"/>
@@ -6964,14 +6303,12 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="19"/>
     </row>
-    <row r="61" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="3">
-        <v>68</v>
-      </c>
+    <row r="61" spans="1:18" ht="100" customHeight="1">
+      <c r="A61" s="3"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="85"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="84"/>
       <c r="F61" s="4"/>
       <c r="G61" s="9"/>
       <c r="H61" s="24"/>
@@ -6986,14 +6323,12 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="19"/>
     </row>
-    <row r="62" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="3">
-        <v>69</v>
-      </c>
+    <row r="62" spans="1:18" ht="100" customHeight="1">
+      <c r="A62" s="3"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="85"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="84"/>
       <c r="F62" s="4"/>
       <c r="G62" s="9"/>
       <c r="H62" s="24"/>
@@ -7008,14 +6343,12 @@
       <c r="Q62" s="16"/>
       <c r="R62" s="19"/>
     </row>
-    <row r="63" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="3">
-        <v>70</v>
-      </c>
+    <row r="63" spans="1:18" ht="100" customHeight="1">
+      <c r="A63" s="3"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="85"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="84"/>
       <c r="F63" s="4"/>
       <c r="G63" s="9"/>
       <c r="H63" s="24"/>
@@ -7025,19 +6358,17 @@
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
       <c r="N63" s="13"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="10"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="7"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="19"/>
     </row>
-    <row r="64" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="3">
-        <v>71</v>
-      </c>
+    <row r="64" spans="1:18" ht="100" customHeight="1">
+      <c r="A64" s="3"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="85"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="84"/>
       <c r="F64" s="4"/>
       <c r="G64" s="9"/>
       <c r="H64" s="24"/>
@@ -7052,14 +6383,12 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="19"/>
     </row>
-    <row r="65" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="3">
-        <v>72</v>
-      </c>
+    <row r="65" spans="1:18" ht="100" customHeight="1">
+      <c r="A65" s="3"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="85"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="84"/>
       <c r="F65" s="4"/>
       <c r="G65" s="9"/>
       <c r="H65" s="24"/>
@@ -7074,14 +6403,12 @@
       <c r="Q65" s="16"/>
       <c r="R65" s="19"/>
     </row>
-    <row r="66" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
-        <v>73</v>
-      </c>
+    <row r="66" spans="1:18" ht="100" customHeight="1">
+      <c r="A66" s="3"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="85"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="4"/>
       <c r="G66" s="9"/>
       <c r="H66" s="24"/>
@@ -7096,14 +6423,12 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="19"/>
     </row>
-    <row r="67" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="3">
-        <v>74</v>
-      </c>
+    <row r="67" spans="1:18" ht="100" customHeight="1">
+      <c r="A67" s="3"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="85"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="84"/>
       <c r="F67" s="4"/>
       <c r="G67" s="9"/>
       <c r="H67" s="24"/>
@@ -7118,14 +6443,12 @@
       <c r="Q67" s="16"/>
       <c r="R67" s="19"/>
     </row>
-    <row r="68" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
-        <v>75</v>
-      </c>
+    <row r="68" spans="1:18" ht="100" customHeight="1">
+      <c r="A68" s="3"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="85"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="4"/>
       <c r="G68" s="9"/>
       <c r="H68" s="24"/>
@@ -7135,19 +6458,17 @@
       <c r="L68" s="5"/>
       <c r="M68" s="6"/>
       <c r="N68" s="13"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="7"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="10"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="19"/>
     </row>
-    <row r="69" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="3">
-        <v>76</v>
-      </c>
+    <row r="69" spans="1:18" ht="100" customHeight="1">
+      <c r="A69" s="3"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="85"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="84"/>
       <c r="F69" s="4"/>
       <c r="G69" s="9"/>
       <c r="H69" s="24"/>
@@ -7162,14 +6483,12 @@
       <c r="Q69" s="16"/>
       <c r="R69" s="19"/>
     </row>
-    <row r="70" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="3">
-        <v>77</v>
-      </c>
+    <row r="70" spans="1:18" ht="100" customHeight="1">
+      <c r="A70" s="3"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="85"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="84"/>
       <c r="F70" s="4"/>
       <c r="G70" s="9"/>
       <c r="H70" s="24"/>
@@ -7184,14 +6503,12 @@
       <c r="Q70" s="16"/>
       <c r="R70" s="19"/>
     </row>
-    <row r="71" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="3">
-        <v>78</v>
-      </c>
+    <row r="71" spans="1:18" ht="100" customHeight="1">
+      <c r="A71" s="3"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="85"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="84"/>
       <c r="F71" s="4"/>
       <c r="G71" s="9"/>
       <c r="H71" s="24"/>
@@ -7206,14 +6523,12 @@
       <c r="Q71" s="16"/>
       <c r="R71" s="19"/>
     </row>
-    <row r="72" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="3">
-        <v>79</v>
-      </c>
+    <row r="72" spans="1:18" ht="100" customHeight="1">
+      <c r="A72" s="3"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="85"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="4"/>
       <c r="G72" s="9"/>
       <c r="H72" s="24"/>
@@ -7228,14 +6543,12 @@
       <c r="Q72" s="16"/>
       <c r="R72" s="19"/>
     </row>
-    <row r="73" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="3">
-        <v>80</v>
-      </c>
+    <row r="73" spans="1:18" ht="100" customHeight="1">
+      <c r="A73" s="3"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="85"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="84"/>
       <c r="F73" s="4"/>
       <c r="G73" s="9"/>
       <c r="H73" s="24"/>
@@ -7245,19 +6558,17 @@
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
       <c r="N73" s="13"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="10"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="7"/>
       <c r="Q73" s="16"/>
       <c r="R73" s="19"/>
     </row>
-    <row r="74" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3">
-        <v>81</v>
-      </c>
+    <row r="74" spans="1:18" ht="100" customHeight="1">
+      <c r="A74" s="3"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="85"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="84"/>
       <c r="F74" s="4"/>
       <c r="G74" s="9"/>
       <c r="H74" s="24"/>
@@ -7272,14 +6583,12 @@
       <c r="Q74" s="16"/>
       <c r="R74" s="19"/>
     </row>
-    <row r="75" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3">
-        <v>82</v>
-      </c>
+    <row r="75" spans="1:18" ht="100" customHeight="1">
+      <c r="A75" s="3"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="82"/>
-      <c r="E75" s="85"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="84"/>
       <c r="F75" s="4"/>
       <c r="G75" s="9"/>
       <c r="H75" s="24"/>
@@ -7294,14 +6603,12 @@
       <c r="Q75" s="16"/>
       <c r="R75" s="19"/>
     </row>
-    <row r="76" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="3">
-        <v>83</v>
-      </c>
+    <row r="76" spans="1:18" ht="100" customHeight="1">
+      <c r="A76" s="3"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="85"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="84"/>
       <c r="F76" s="4"/>
       <c r="G76" s="9"/>
       <c r="H76" s="24"/>
@@ -7316,14 +6623,12 @@
       <c r="Q76" s="16"/>
       <c r="R76" s="19"/>
     </row>
-    <row r="77" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="3">
-        <v>84</v>
-      </c>
+    <row r="77" spans="1:18" ht="100" customHeight="1">
+      <c r="A77" s="3"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="85"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="84"/>
       <c r="F77" s="4"/>
       <c r="G77" s="9"/>
       <c r="H77" s="24"/>
@@ -7338,14 +6643,12 @@
       <c r="Q77" s="16"/>
       <c r="R77" s="19"/>
     </row>
-    <row r="78" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="3">
-        <v>85</v>
-      </c>
+    <row r="78" spans="1:18" ht="100" customHeight="1">
+      <c r="A78" s="3"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="85"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="84"/>
       <c r="F78" s="4"/>
       <c r="G78" s="9"/>
       <c r="H78" s="24"/>
@@ -7355,19 +6658,17 @@
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
       <c r="N78" s="13"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="7"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="10"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="19"/>
     </row>
-    <row r="79" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="3">
-        <v>86</v>
-      </c>
+    <row r="79" spans="1:18" ht="100" customHeight="1">
+      <c r="A79" s="3"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="85"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="84"/>
       <c r="F79" s="4"/>
       <c r="G79" s="9"/>
       <c r="H79" s="24"/>
@@ -7382,14 +6683,12 @@
       <c r="Q79" s="16"/>
       <c r="R79" s="19"/>
     </row>
-    <row r="80" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="3">
-        <v>87</v>
-      </c>
+    <row r="80" spans="1:18" ht="100" customHeight="1">
+      <c r="A80" s="3"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="85"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="84"/>
       <c r="F80" s="4"/>
       <c r="G80" s="9"/>
       <c r="H80" s="24"/>
@@ -7404,14 +6703,12 @@
       <c r="Q80" s="16"/>
       <c r="R80" s="19"/>
     </row>
-    <row r="81" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="3">
-        <v>88</v>
-      </c>
+    <row r="81" spans="1:18" ht="100" customHeight="1">
+      <c r="A81" s="3"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="85"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="84"/>
       <c r="F81" s="4"/>
       <c r="G81" s="9"/>
       <c r="H81" s="24"/>
@@ -7426,14 +6723,12 @@
       <c r="Q81" s="16"/>
       <c r="R81" s="19"/>
     </row>
-    <row r="82" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="3">
-        <v>89</v>
-      </c>
+    <row r="82" spans="1:18" ht="100" customHeight="1">
+      <c r="A82" s="3"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="85"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="84"/>
       <c r="F82" s="4"/>
       <c r="G82" s="9"/>
       <c r="H82" s="24"/>
@@ -7448,14 +6743,12 @@
       <c r="Q82" s="16"/>
       <c r="R82" s="19"/>
     </row>
-    <row r="83" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="3">
-        <v>90</v>
-      </c>
+    <row r="83" spans="1:18" ht="100" customHeight="1">
+      <c r="A83" s="3"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="85"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="84"/>
       <c r="F83" s="4"/>
       <c r="G83" s="9"/>
       <c r="H83" s="24"/>
@@ -7465,19 +6758,17 @@
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
       <c r="N83" s="13"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="10"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="7"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="19"/>
     </row>
-    <row r="84" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="3">
-        <v>91</v>
-      </c>
+    <row r="84" spans="1:18" ht="100" customHeight="1">
+      <c r="A84" s="3"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="85"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="84"/>
       <c r="F84" s="4"/>
       <c r="G84" s="9"/>
       <c r="H84" s="24"/>
@@ -7492,14 +6783,12 @@
       <c r="Q84" s="16"/>
       <c r="R84" s="19"/>
     </row>
-    <row r="85" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="3">
-        <v>92</v>
-      </c>
+    <row r="85" spans="1:18" ht="100" customHeight="1">
+      <c r="A85" s="3"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="85"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="84"/>
       <c r="F85" s="4"/>
       <c r="G85" s="9"/>
       <c r="H85" s="24"/>
@@ -7514,14 +6803,12 @@
       <c r="Q85" s="16"/>
       <c r="R85" s="19"/>
     </row>
-    <row r="86" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="3">
-        <v>93</v>
-      </c>
+    <row r="86" spans="1:18" ht="100" customHeight="1">
+      <c r="A86" s="3"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="85"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="84"/>
       <c r="F86" s="4"/>
       <c r="G86" s="9"/>
       <c r="H86" s="24"/>
@@ -7536,14 +6823,12 @@
       <c r="Q86" s="16"/>
       <c r="R86" s="19"/>
     </row>
-    <row r="87" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="3">
-        <v>94</v>
-      </c>
+    <row r="87" spans="1:18" ht="100" customHeight="1">
+      <c r="A87" s="3"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="85"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="84"/>
       <c r="F87" s="4"/>
       <c r="G87" s="9"/>
       <c r="H87" s="24"/>
@@ -7558,14 +6843,12 @@
       <c r="Q87" s="16"/>
       <c r="R87" s="19"/>
     </row>
-    <row r="88" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="3">
-        <v>95</v>
-      </c>
+    <row r="88" spans="1:18" ht="100" customHeight="1">
+      <c r="A88" s="3"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="85"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="84"/>
       <c r="F88" s="4"/>
       <c r="G88" s="9"/>
       <c r="H88" s="24"/>
@@ -7575,19 +6858,17 @@
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
       <c r="N88" s="13"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="7"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="10"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="19"/>
     </row>
-    <row r="89" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="3">
-        <v>96</v>
-      </c>
+    <row r="89" spans="1:18" ht="100" customHeight="1">
+      <c r="A89" s="3"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="85"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="84"/>
       <c r="F89" s="4"/>
       <c r="G89" s="9"/>
       <c r="H89" s="24"/>
@@ -7602,14 +6883,12 @@
       <c r="Q89" s="16"/>
       <c r="R89" s="19"/>
     </row>
-    <row r="90" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="3">
-        <v>97</v>
-      </c>
+    <row r="90" spans="1:18" ht="100" customHeight="1">
+      <c r="A90" s="3"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="85"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="84"/>
       <c r="F90" s="4"/>
       <c r="G90" s="9"/>
       <c r="H90" s="24"/>
@@ -7624,14 +6903,12 @@
       <c r="Q90" s="16"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="3">
-        <v>98</v>
-      </c>
+    <row r="91" spans="1:18" ht="100" customHeight="1">
+      <c r="A91" s="3"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="85"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="84"/>
       <c r="F91" s="4"/>
       <c r="G91" s="9"/>
       <c r="H91" s="24"/>
@@ -7646,14 +6923,12 @@
       <c r="Q91" s="16"/>
       <c r="R91" s="19"/>
     </row>
-    <row r="92" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="3">
-        <v>99</v>
-      </c>
+    <row r="92" spans="1:18" ht="100" customHeight="1">
+      <c r="A92" s="3"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="85"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="84"/>
       <c r="F92" s="4"/>
       <c r="G92" s="9"/>
       <c r="H92" s="24"/>
@@ -7668,14 +6943,12 @@
       <c r="Q92" s="16"/>
       <c r="R92" s="19"/>
     </row>
-    <row r="93" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="3">
-        <v>100</v>
-      </c>
+    <row r="93" spans="1:18" ht="100" customHeight="1">
+      <c r="A93" s="3"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="85"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="84"/>
       <c r="F93" s="4"/>
       <c r="G93" s="9"/>
       <c r="H93" s="24"/>
@@ -7685,19 +6958,17 @@
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
       <c r="N93" s="13"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="10"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="7"/>
       <c r="Q93" s="16"/>
       <c r="R93" s="19"/>
     </row>
-    <row r="94" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="3">
-        <v>101</v>
-      </c>
+    <row r="94" spans="1:18" ht="100" customHeight="1">
+      <c r="A94" s="3"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="85"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="84"/>
       <c r="F94" s="4"/>
       <c r="G94" s="9"/>
       <c r="H94" s="24"/>
@@ -7712,14 +6983,12 @@
       <c r="Q94" s="16"/>
       <c r="R94" s="19"/>
     </row>
-    <row r="95" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="3">
-        <v>102</v>
-      </c>
+    <row r="95" spans="1:18" ht="100" customHeight="1">
+      <c r="A95" s="3"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="85"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="84"/>
       <c r="F95" s="4"/>
       <c r="G95" s="9"/>
       <c r="H95" s="24"/>
@@ -7734,14 +7003,12 @@
       <c r="Q95" s="16"/>
       <c r="R95" s="19"/>
     </row>
-    <row r="96" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="3">
-        <v>103</v>
-      </c>
+    <row r="96" spans="1:18" ht="100" customHeight="1">
+      <c r="A96" s="3"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="85"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="84"/>
       <c r="F96" s="4"/>
       <c r="G96" s="9"/>
       <c r="H96" s="24"/>
@@ -7756,14 +7023,12 @@
       <c r="Q96" s="16"/>
       <c r="R96" s="19"/>
     </row>
-    <row r="97" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="3">
-        <v>104</v>
-      </c>
+    <row r="97" spans="1:18" ht="100" customHeight="1">
+      <c r="A97" s="3"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="85"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="84"/>
       <c r="F97" s="4"/>
       <c r="G97" s="9"/>
       <c r="H97" s="24"/>
@@ -7778,14 +7043,12 @@
       <c r="Q97" s="16"/>
       <c r="R97" s="19"/>
     </row>
-    <row r="98" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="3">
-        <v>105</v>
-      </c>
+    <row r="98" spans="1:18" ht="100" customHeight="1">
+      <c r="A98" s="3"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="85"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="84"/>
       <c r="F98" s="4"/>
       <c r="G98" s="9"/>
       <c r="H98" s="24"/>
@@ -7795,19 +7058,17 @@
       <c r="L98" s="5"/>
       <c r="M98" s="6"/>
       <c r="N98" s="13"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="7"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="10"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="19"/>
     </row>
-    <row r="99" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="3">
-        <v>106</v>
-      </c>
+    <row r="99" spans="1:18" ht="100" customHeight="1">
+      <c r="A99" s="3"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="85"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="84"/>
       <c r="F99" s="4"/>
       <c r="G99" s="9"/>
       <c r="H99" s="24"/>
@@ -7822,14 +7083,12 @@
       <c r="Q99" s="16"/>
       <c r="R99" s="19"/>
     </row>
-    <row r="100" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="3">
-        <v>107</v>
-      </c>
+    <row r="100" spans="1:18" ht="100" customHeight="1">
+      <c r="A100" s="3"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="85"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="84"/>
       <c r="F100" s="4"/>
       <c r="G100" s="9"/>
       <c r="H100" s="24"/>
@@ -7844,14 +7103,12 @@
       <c r="Q100" s="16"/>
       <c r="R100" s="19"/>
     </row>
-    <row r="101" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="3">
-        <v>108</v>
-      </c>
+    <row r="101" spans="1:18" ht="100" customHeight="1">
+      <c r="A101" s="3"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="85"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="84"/>
       <c r="F101" s="4"/>
       <c r="G101" s="9"/>
       <c r="H101" s="24"/>
@@ -7866,14 +7123,12 @@
       <c r="Q101" s="16"/>
       <c r="R101" s="19"/>
     </row>
-    <row r="102" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="3">
-        <v>109</v>
-      </c>
+    <row r="102" spans="1:18" ht="100" customHeight="1">
+      <c r="A102" s="3"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="85"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="84"/>
       <c r="F102" s="4"/>
       <c r="G102" s="9"/>
       <c r="H102" s="24"/>
@@ -7888,14 +7143,12 @@
       <c r="Q102" s="16"/>
       <c r="R102" s="19"/>
     </row>
-    <row r="103" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="3">
-        <v>110</v>
-      </c>
+    <row r="103" spans="1:18" ht="100" customHeight="1">
+      <c r="A103" s="3"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="85"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="84"/>
       <c r="F103" s="4"/>
       <c r="G103" s="9"/>
       <c r="H103" s="24"/>
@@ -7905,19 +7158,17 @@
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
       <c r="N103" s="13"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="10"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="7"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="19"/>
     </row>
-    <row r="104" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="3">
-        <v>111</v>
-      </c>
+    <row r="104" spans="1:18" ht="100" customHeight="1">
+      <c r="A104" s="3"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="85"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="84"/>
       <c r="F104" s="4"/>
       <c r="G104" s="9"/>
       <c r="H104" s="24"/>
@@ -7932,14 +7183,12 @@
       <c r="Q104" s="16"/>
       <c r="R104" s="19"/>
     </row>
-    <row r="105" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="3">
-        <v>112</v>
-      </c>
+    <row r="105" spans="1:18" ht="100" customHeight="1">
+      <c r="A105" s="3"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="85"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="84"/>
       <c r="F105" s="4"/>
       <c r="G105" s="9"/>
       <c r="H105" s="24"/>
@@ -7954,14 +7203,12 @@
       <c r="Q105" s="16"/>
       <c r="R105" s="19"/>
     </row>
-    <row r="106" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="3">
-        <v>113</v>
-      </c>
+    <row r="106" spans="1:18" ht="100" customHeight="1">
+      <c r="A106" s="3"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="85"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="84"/>
       <c r="F106" s="4"/>
       <c r="G106" s="9"/>
       <c r="H106" s="24"/>
@@ -7976,14 +7223,12 @@
       <c r="Q106" s="16"/>
       <c r="R106" s="19"/>
     </row>
-    <row r="107" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="3">
-        <v>114</v>
-      </c>
+    <row r="107" spans="1:18" ht="100" customHeight="1">
+      <c r="A107" s="3"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="85"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="84"/>
       <c r="F107" s="4"/>
       <c r="G107" s="9"/>
       <c r="H107" s="24"/>
@@ -7998,14 +7243,12 @@
       <c r="Q107" s="16"/>
       <c r="R107" s="19"/>
     </row>
-    <row r="108" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="3">
-        <v>115</v>
-      </c>
+    <row r="108" spans="1:18" ht="100" customHeight="1">
+      <c r="A108" s="3"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="85"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="84"/>
       <c r="F108" s="4"/>
       <c r="G108" s="9"/>
       <c r="H108" s="24"/>
@@ -8015,19 +7258,17 @@
       <c r="L108" s="5"/>
       <c r="M108" s="6"/>
       <c r="N108" s="13"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="7"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="10"/>
       <c r="Q108" s="16"/>
       <c r="R108" s="19"/>
     </row>
-    <row r="109" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="3">
-        <v>116</v>
-      </c>
+    <row r="109" spans="1:18" ht="100" customHeight="1">
+      <c r="A109" s="3"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="85"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="84"/>
       <c r="F109" s="4"/>
       <c r="G109" s="9"/>
       <c r="H109" s="24"/>
@@ -8042,14 +7283,12 @@
       <c r="Q109" s="16"/>
       <c r="R109" s="19"/>
     </row>
-    <row r="110" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="3">
-        <v>117</v>
-      </c>
+    <row r="110" spans="1:18" ht="100" customHeight="1">
+      <c r="A110" s="3"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="85"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="84"/>
       <c r="F110" s="4"/>
       <c r="G110" s="9"/>
       <c r="H110" s="24"/>
@@ -8064,14 +7303,12 @@
       <c r="Q110" s="16"/>
       <c r="R110" s="19"/>
     </row>
-    <row r="111" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="3">
-        <v>118</v>
-      </c>
+    <row r="111" spans="1:18" ht="100" customHeight="1">
+      <c r="A111" s="3"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
-      <c r="D111" s="82"/>
-      <c r="E111" s="85"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="84"/>
       <c r="F111" s="4"/>
       <c r="G111" s="9"/>
       <c r="H111" s="24"/>
@@ -8086,14 +7323,12 @@
       <c r="Q111" s="16"/>
       <c r="R111" s="19"/>
     </row>
-    <row r="112" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="3">
-        <v>119</v>
-      </c>
+    <row r="112" spans="1:18" ht="100" customHeight="1">
+      <c r="A112" s="3"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="85"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="84"/>
       <c r="F112" s="4"/>
       <c r="G112" s="9"/>
       <c r="H112" s="24"/>
@@ -8108,14 +7343,12 @@
       <c r="Q112" s="16"/>
       <c r="R112" s="19"/>
     </row>
-    <row r="113" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="3">
-        <v>120</v>
-      </c>
+    <row r="113" spans="1:18" ht="100" customHeight="1">
+      <c r="A113" s="3"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
-      <c r="D113" s="82"/>
-      <c r="E113" s="85"/>
+      <c r="D113" s="81"/>
+      <c r="E113" s="84"/>
       <c r="F113" s="4"/>
       <c r="G113" s="9"/>
       <c r="H113" s="24"/>
@@ -8125,19 +7358,17 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="13"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="10"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="7"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="19"/>
     </row>
-    <row r="114" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="3">
-        <v>121</v>
-      </c>
+    <row r="114" spans="1:18" ht="100" customHeight="1">
+      <c r="A114" s="3"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="85"/>
+      <c r="D114" s="81"/>
+      <c r="E114" s="84"/>
       <c r="F114" s="4"/>
       <c r="G114" s="9"/>
       <c r="H114" s="24"/>
@@ -8152,14 +7383,12 @@
       <c r="Q114" s="16"/>
       <c r="R114" s="19"/>
     </row>
-    <row r="115" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="3">
-        <v>122</v>
-      </c>
+    <row r="115" spans="1:18" ht="100" customHeight="1">
+      <c r="A115" s="3"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="85"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="84"/>
       <c r="F115" s="4"/>
       <c r="G115" s="9"/>
       <c r="H115" s="24"/>
@@ -8174,14 +7403,12 @@
       <c r="Q115" s="16"/>
       <c r="R115" s="19"/>
     </row>
-    <row r="116" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
-        <v>123</v>
-      </c>
+    <row r="116" spans="1:18" ht="100" customHeight="1">
+      <c r="A116" s="3"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="85"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="84"/>
       <c r="F116" s="4"/>
       <c r="G116" s="9"/>
       <c r="H116" s="24"/>
@@ -8196,14 +7423,12 @@
       <c r="Q116" s="16"/>
       <c r="R116" s="19"/>
     </row>
-    <row r="117" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
-        <v>124</v>
-      </c>
+    <row r="117" spans="1:18" ht="100" customHeight="1">
+      <c r="A117" s="3"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="85"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="84"/>
       <c r="F117" s="4"/>
       <c r="G117" s="9"/>
       <c r="H117" s="24"/>
@@ -8218,14 +7443,12 @@
       <c r="Q117" s="16"/>
       <c r="R117" s="19"/>
     </row>
-    <row r="118" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
-        <v>125</v>
-      </c>
+    <row r="118" spans="1:18" ht="100" customHeight="1">
+      <c r="A118" s="3"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="85"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="84"/>
       <c r="F118" s="4"/>
       <c r="G118" s="9"/>
       <c r="H118" s="24"/>
@@ -8235,19 +7458,17 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="13"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="7"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="10"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="19"/>
     </row>
-    <row r="119" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
-        <v>126</v>
-      </c>
+    <row r="119" spans="1:18" ht="100" customHeight="1">
+      <c r="A119" s="3"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="85"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="84"/>
       <c r="F119" s="4"/>
       <c r="G119" s="9"/>
       <c r="H119" s="24"/>
@@ -8262,14 +7483,12 @@
       <c r="Q119" s="16"/>
       <c r="R119" s="19"/>
     </row>
-    <row r="120" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
-        <v>127</v>
-      </c>
+    <row r="120" spans="1:18" ht="100" customHeight="1">
+      <c r="A120" s="3"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="85"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="84"/>
       <c r="F120" s="4"/>
       <c r="G120" s="9"/>
       <c r="H120" s="24"/>
@@ -8284,14 +7503,12 @@
       <c r="Q120" s="16"/>
       <c r="R120" s="19"/>
     </row>
-    <row r="121" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
-        <v>128</v>
-      </c>
+    <row r="121" spans="1:18" ht="100" customHeight="1">
+      <c r="A121" s="3"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="85"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="84"/>
       <c r="F121" s="4"/>
       <c r="G121" s="9"/>
       <c r="H121" s="24"/>
@@ -8306,14 +7523,12 @@
       <c r="Q121" s="16"/>
       <c r="R121" s="19"/>
     </row>
-    <row r="122" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
-        <v>129</v>
-      </c>
+    <row r="122" spans="1:18" ht="100" customHeight="1">
+      <c r="A122" s="3"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
-      <c r="D122" s="82"/>
-      <c r="E122" s="85"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="84"/>
       <c r="F122" s="4"/>
       <c r="G122" s="9"/>
       <c r="H122" s="24"/>
@@ -8328,14 +7543,12 @@
       <c r="Q122" s="16"/>
       <c r="R122" s="19"/>
     </row>
-    <row r="123" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
-        <v>130</v>
-      </c>
+    <row r="123" spans="1:18" ht="100" customHeight="1">
+      <c r="A123" s="3"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
-      <c r="D123" s="82"/>
-      <c r="E123" s="85"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="84"/>
       <c r="F123" s="4"/>
       <c r="G123" s="9"/>
       <c r="H123" s="24"/>
@@ -8345,19 +7558,17 @@
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
       <c r="N123" s="13"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="10"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="7"/>
       <c r="Q123" s="16"/>
       <c r="R123" s="19"/>
     </row>
-    <row r="124" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
-        <v>131</v>
-      </c>
+    <row r="124" spans="1:18" ht="100" customHeight="1">
+      <c r="A124" s="3"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="85"/>
+      <c r="D124" s="81"/>
+      <c r="E124" s="84"/>
       <c r="F124" s="4"/>
       <c r="G124" s="9"/>
       <c r="H124" s="24"/>
@@ -8372,14 +7583,12 @@
       <c r="Q124" s="16"/>
       <c r="R124" s="19"/>
     </row>
-    <row r="125" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
-        <v>132</v>
-      </c>
+    <row r="125" spans="1:18" ht="100" customHeight="1">
+      <c r="A125" s="3"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="85"/>
+      <c r="D125" s="81"/>
+      <c r="E125" s="84"/>
       <c r="F125" s="4"/>
       <c r="G125" s="9"/>
       <c r="H125" s="24"/>
@@ -8394,14 +7603,12 @@
       <c r="Q125" s="16"/>
       <c r="R125" s="19"/>
     </row>
-    <row r="126" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
-        <v>133</v>
-      </c>
+    <row r="126" spans="1:18" ht="100" customHeight="1">
+      <c r="A126" s="3"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
-      <c r="D126" s="82"/>
-      <c r="E126" s="85"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="84"/>
       <c r="F126" s="4"/>
       <c r="G126" s="9"/>
       <c r="H126" s="24"/>
@@ -8416,14 +7623,12 @@
       <c r="Q126" s="16"/>
       <c r="R126" s="19"/>
     </row>
-    <row r="127" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
-        <v>134</v>
-      </c>
+    <row r="127" spans="1:18" ht="100" customHeight="1">
+      <c r="A127" s="3"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
-      <c r="D127" s="82"/>
-      <c r="E127" s="85"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="84"/>
       <c r="F127" s="4"/>
       <c r="G127" s="9"/>
       <c r="H127" s="24"/>
@@ -8438,14 +7643,12 @@
       <c r="Q127" s="16"/>
       <c r="R127" s="19"/>
     </row>
-    <row r="128" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
-        <v>135</v>
-      </c>
+    <row r="128" spans="1:18" ht="100" customHeight="1">
+      <c r="A128" s="3"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="85"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="84"/>
       <c r="F128" s="4"/>
       <c r="G128" s="9"/>
       <c r="H128" s="24"/>
@@ -8455,19 +7658,17 @@
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
       <c r="N128" s="13"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="7"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="10"/>
       <c r="Q128" s="16"/>
       <c r="R128" s="19"/>
     </row>
-    <row r="129" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
-        <v>136</v>
-      </c>
+    <row r="129" spans="1:18" ht="100" customHeight="1">
+      <c r="A129" s="3"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="85"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="84"/>
       <c r="F129" s="4"/>
       <c r="G129" s="9"/>
       <c r="H129" s="24"/>
@@ -8482,14 +7683,12 @@
       <c r="Q129" s="16"/>
       <c r="R129" s="19"/>
     </row>
-    <row r="130" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
-        <v>137</v>
-      </c>
+    <row r="130" spans="1:18" ht="100" customHeight="1">
+      <c r="A130" s="3"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="85"/>
+      <c r="D130" s="81"/>
+      <c r="E130" s="84"/>
       <c r="F130" s="4"/>
       <c r="G130" s="9"/>
       <c r="H130" s="24"/>
@@ -8504,14 +7703,12 @@
       <c r="Q130" s="16"/>
       <c r="R130" s="19"/>
     </row>
-    <row r="131" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
-        <v>138</v>
-      </c>
+    <row r="131" spans="1:18" ht="100" customHeight="1">
+      <c r="A131" s="3"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="85"/>
+      <c r="D131" s="81"/>
+      <c r="E131" s="84"/>
       <c r="F131" s="4"/>
       <c r="G131" s="9"/>
       <c r="H131" s="24"/>
@@ -8526,14 +7723,12 @@
       <c r="Q131" s="16"/>
       <c r="R131" s="19"/>
     </row>
-    <row r="132" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
-        <v>139</v>
-      </c>
+    <row r="132" spans="1:18" ht="100" customHeight="1">
+      <c r="A132" s="3"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="85"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="84"/>
       <c r="F132" s="4"/>
       <c r="G132" s="9"/>
       <c r="H132" s="24"/>
@@ -8548,14 +7743,12 @@
       <c r="Q132" s="16"/>
       <c r="R132" s="19"/>
     </row>
-    <row r="133" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
-        <v>140</v>
-      </c>
+    <row r="133" spans="1:18" ht="100" customHeight="1">
+      <c r="A133" s="3"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="85"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="84"/>
       <c r="F133" s="4"/>
       <c r="G133" s="9"/>
       <c r="H133" s="24"/>
@@ -8565,19 +7758,17 @@
       <c r="L133" s="5"/>
       <c r="M133" s="6"/>
       <c r="N133" s="13"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="10"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="7"/>
       <c r="Q133" s="16"/>
       <c r="R133" s="19"/>
     </row>
-    <row r="134" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <v>141</v>
-      </c>
+    <row r="134" spans="1:18" ht="100" customHeight="1">
+      <c r="A134" s="3"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
-      <c r="D134" s="82"/>
-      <c r="E134" s="85"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="84"/>
       <c r="F134" s="4"/>
       <c r="G134" s="9"/>
       <c r="H134" s="24"/>
@@ -8592,14 +7783,12 @@
       <c r="Q134" s="16"/>
       <c r="R134" s="19"/>
     </row>
-    <row r="135" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <v>142</v>
-      </c>
+    <row r="135" spans="1:18" ht="100" customHeight="1">
+      <c r="A135" s="3"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
-      <c r="D135" s="82"/>
-      <c r="E135" s="85"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="84"/>
       <c r="F135" s="4"/>
       <c r="G135" s="9"/>
       <c r="H135" s="24"/>
@@ -8614,14 +7803,12 @@
       <c r="Q135" s="16"/>
       <c r="R135" s="19"/>
     </row>
-    <row r="136" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <v>143</v>
-      </c>
+    <row r="136" spans="1:18" ht="100" customHeight="1">
+      <c r="A136" s="3"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
-      <c r="D136" s="82"/>
-      <c r="E136" s="85"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="84"/>
       <c r="F136" s="4"/>
       <c r="G136" s="9"/>
       <c r="H136" s="24"/>
@@ -8636,14 +7823,12 @@
       <c r="Q136" s="16"/>
       <c r="R136" s="19"/>
     </row>
-    <row r="137" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <v>144</v>
-      </c>
+    <row r="137" spans="1:18" ht="100" customHeight="1">
+      <c r="A137" s="3"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
-      <c r="D137" s="82"/>
-      <c r="E137" s="85"/>
+      <c r="D137" s="81"/>
+      <c r="E137" s="84"/>
       <c r="F137" s="4"/>
       <c r="G137" s="9"/>
       <c r="H137" s="24"/>
@@ -8658,14 +7843,12 @@
       <c r="Q137" s="16"/>
       <c r="R137" s="19"/>
     </row>
-    <row r="138" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <v>145</v>
-      </c>
+    <row r="138" spans="1:18" ht="100" customHeight="1">
+      <c r="A138" s="3"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="85"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="84"/>
       <c r="F138" s="4"/>
       <c r="G138" s="9"/>
       <c r="H138" s="24"/>
@@ -8675,19 +7858,17 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="13"/>
-      <c r="O138" s="12"/>
-      <c r="P138" s="7"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="10"/>
       <c r="Q138" s="16"/>
       <c r="R138" s="19"/>
     </row>
-    <row r="139" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <v>146</v>
-      </c>
+    <row r="139" spans="1:18" ht="100" customHeight="1">
+      <c r="A139" s="3"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
-      <c r="D139" s="82"/>
-      <c r="E139" s="85"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="84"/>
       <c r="F139" s="4"/>
       <c r="G139" s="9"/>
       <c r="H139" s="24"/>
@@ -8702,14 +7883,12 @@
       <c r="Q139" s="16"/>
       <c r="R139" s="19"/>
     </row>
-    <row r="140" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <v>147</v>
-      </c>
+    <row r="140" spans="1:18" ht="100" customHeight="1">
+      <c r="A140" s="3"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
-      <c r="D140" s="82"/>
-      <c r="E140" s="85"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="84"/>
       <c r="F140" s="4"/>
       <c r="G140" s="9"/>
       <c r="H140" s="24"/>
@@ -8724,14 +7903,12 @@
       <c r="Q140" s="16"/>
       <c r="R140" s="19"/>
     </row>
-    <row r="141" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <v>148</v>
-      </c>
+    <row r="141" spans="1:18" ht="100" customHeight="1">
+      <c r="A141" s="3"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
-      <c r="D141" s="82"/>
-      <c r="E141" s="85"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="84"/>
       <c r="F141" s="4"/>
       <c r="G141" s="9"/>
       <c r="H141" s="24"/>
@@ -8746,14 +7923,12 @@
       <c r="Q141" s="16"/>
       <c r="R141" s="19"/>
     </row>
-    <row r="142" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
-        <v>149</v>
-      </c>
+    <row r="142" spans="1:18" ht="100" customHeight="1">
+      <c r="A142" s="3"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
-      <c r="D142" s="82"/>
-      <c r="E142" s="85"/>
+      <c r="D142" s="81"/>
+      <c r="E142" s="84"/>
       <c r="F142" s="4"/>
       <c r="G142" s="9"/>
       <c r="H142" s="24"/>
@@ -8768,14 +7943,12 @@
       <c r="Q142" s="16"/>
       <c r="R142" s="19"/>
     </row>
-    <row r="143" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <v>150</v>
-      </c>
+    <row r="143" spans="1:18" ht="100" customHeight="1">
+      <c r="A143" s="3"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="85"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="84"/>
       <c r="F143" s="4"/>
       <c r="G143" s="9"/>
       <c r="H143" s="24"/>
@@ -8785,19 +7958,17 @@
       <c r="L143" s="5"/>
       <c r="M143" s="6"/>
       <c r="N143" s="13"/>
-      <c r="O143" s="8"/>
-      <c r="P143" s="10"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="7"/>
       <c r="Q143" s="16"/>
       <c r="R143" s="19"/>
     </row>
-    <row r="144" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
-        <v>151</v>
-      </c>
+    <row r="144" spans="1:18" ht="100" customHeight="1">
+      <c r="A144" s="3"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="85"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="84"/>
       <c r="F144" s="4"/>
       <c r="G144" s="9"/>
       <c r="H144" s="24"/>
@@ -8812,14 +7983,12 @@
       <c r="Q144" s="16"/>
       <c r="R144" s="19"/>
     </row>
-    <row r="145" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
-        <v>152</v>
-      </c>
+    <row r="145" spans="1:18" ht="100" customHeight="1">
+      <c r="A145" s="3"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="85"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="84"/>
       <c r="F145" s="4"/>
       <c r="G145" s="9"/>
       <c r="H145" s="24"/>
@@ -8834,14 +8003,12 @@
       <c r="Q145" s="16"/>
       <c r="R145" s="19"/>
     </row>
-    <row r="146" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
-        <v>153</v>
-      </c>
+    <row r="146" spans="1:18" ht="100" customHeight="1">
+      <c r="A146" s="3"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="85"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="84"/>
       <c r="F146" s="4"/>
       <c r="G146" s="9"/>
       <c r="H146" s="24"/>
@@ -8854,175 +8021,60 @@
       <c r="O146" s="12"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="16"/>
-      <c r="R146" s="19"/>
-    </row>
-    <row r="147" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="3">
-        <v>154</v>
-      </c>
-      <c r="B147" s="22"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="82"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="24"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="16"/>
-      <c r="R147" s="19"/>
-    </row>
-    <row r="148" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
-        <v>155</v>
-      </c>
-      <c r="B148" s="22"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="82"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="13"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="16"/>
-      <c r="R148" s="19"/>
-    </row>
-    <row r="149" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="3">
-        <v>156</v>
-      </c>
-      <c r="B149" s="22"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="82"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="13"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="16"/>
-      <c r="R149" s="19"/>
-    </row>
-    <row r="150" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="3">
-        <v>157</v>
-      </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="82"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="13"/>
-      <c r="O150" s="12"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="16"/>
-      <c r="R150" s="19"/>
-    </row>
-    <row r="151" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="3">
-        <v>158</v>
-      </c>
-      <c r="B151" s="22"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="82"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="13"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="16"/>
-      <c r="R151" s="20"/>
+      <c r="R146" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1"/>
-  <sortState ref="C7:C44">
-    <sortCondition ref="C7:C44"/>
+  <autoFilter ref="A1:AD1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState ref="C7:C39">
+    <sortCondition ref="C7:C39"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$Y$2:$Y$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N6" r:id="rId4"/>
-    <hyperlink ref="N7" r:id="rId5"/>
-    <hyperlink ref="N8" r:id="rId6"/>
-    <hyperlink ref="N9" r:id="rId7"/>
-    <hyperlink ref="N10" r:id="rId8"/>
-    <hyperlink ref="N12" r:id="rId9"/>
-    <hyperlink ref="N13" r:id="rId10"/>
-    <hyperlink ref="N14" r:id="rId11"/>
-    <hyperlink ref="N15" r:id="rId12"/>
-    <hyperlink ref="N16" r:id="rId13"/>
-    <hyperlink ref="N17" r:id="rId14"/>
-    <hyperlink ref="N18" r:id="rId15"/>
-    <hyperlink ref="N19" r:id="rId16"/>
-    <hyperlink ref="N20" r:id="rId17"/>
-    <hyperlink ref="N21" r:id="rId18"/>
-    <hyperlink ref="N22" r:id="rId19"/>
-    <hyperlink ref="N23" r:id="rId20"/>
-    <hyperlink ref="N24" r:id="rId21"/>
-    <hyperlink ref="N25" r:id="rId22"/>
-    <hyperlink ref="N26" r:id="rId23"/>
-    <hyperlink ref="N27" r:id="rId24"/>
-    <hyperlink ref="N28" r:id="rId25"/>
-    <hyperlink ref="N29" r:id="rId26"/>
-    <hyperlink ref="N30" r:id="rId27"/>
-    <hyperlink ref="N31" r:id="rId28"/>
-    <hyperlink ref="N32" r:id="rId29"/>
-    <hyperlink ref="N33" r:id="rId30"/>
-    <hyperlink ref="N34" r:id="rId31"/>
-    <hyperlink ref="N35" r:id="rId32"/>
-    <hyperlink ref="N36" r:id="rId33"/>
-    <hyperlink ref="N37" r:id="rId34"/>
-    <hyperlink ref="N38" r:id="rId35"/>
-    <hyperlink ref="N39" r:id="rId36"/>
-    <hyperlink ref="N40" r:id="rId37"/>
-    <hyperlink ref="N41" r:id="rId38"/>
-    <hyperlink ref="N5" r:id="rId39"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N5" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId40"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId35"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"HG丸ｺﾞｼｯｸM-PRO,標準"&amp;14※講座の詳細は、ホームページからご確認ください。　　　　　　　　　　　　　　　　　
 ※定員に到達し、受付を終了している場合があります。
